--- a/Computational_Data/F_Intermediate/F_Theoretical_NMR_Data.xlsx
+++ b/Computational_Data/F_Intermediate/F_Theoretical_NMR_Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/F_Intermediate/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C3C52-D60A-AD41-9039-54D8E7EBAF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="280" windowWidth="13020" windowHeight="12800" tabRatio="500"/>
+    <workbookView xWindow="4120" yWindow="460" windowWidth="18000" windowHeight="13660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -75,9 +81,6 @@
     <t>2-TPy-B</t>
   </si>
   <si>
-    <t>Relative Energy</t>
-  </si>
-  <si>
     <t>Hydride Shift</t>
   </si>
   <si>
@@ -94,12 +97,15 @@
   </si>
   <si>
     <t>31P Shift Relative</t>
+  </si>
+  <si>
+    <t>Relative Energy (kJ/mol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,6 +192,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,16 +524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -539,22 +553,22 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -574,8 +588,8 @@
         <v>0.48910700000000001</v>
       </c>
       <c r="G2">
-        <f>(D2-$D$3)*627.5095</f>
-        <v>2.4589524516125585</v>
+        <f>(D2-$D$3)*2625.5</f>
+        <v>10.288258045031625</v>
       </c>
       <c r="H2" s="3">
         <v>41.235500000000002</v>
@@ -592,7 +606,7 @@
         <v>110.59390000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -612,25 +626,25 @@
         <v>0.48958400000000002</v>
       </c>
       <c r="G3">
-        <f>(D3-$D$3)*627.5095</f>
+        <f t="shared" ref="G3:G7" si="0">(D3-$D$3)*2625.5</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>41.432600000000001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="0">$H$9-H3</f>
+        <f t="shared" ref="I3:I7" si="1">$H$9-H3</f>
         <v>-10.216880000000003</v>
       </c>
       <c r="J3" s="3">
         <v>198.03540000000001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">$J$15-J3</f>
+        <f t="shared" ref="K3:K7" si="2">$J$15-J3</f>
         <v>109.14320000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -650,25 +664,25 @@
         <v>0.48889199999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="2">(D4-$D$3)*627.5095</f>
-        <v>13.27191377627847</v>
+        <f t="shared" si="0"/>
+        <v>55.529692569784402</v>
       </c>
       <c r="H4" s="3">
         <v>31.0899</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12581999999999738</v>
       </c>
       <c r="J4" s="3">
         <v>194.62799999999999</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.55060000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -688,25 +702,25 @@
         <v>0.48868899999999998</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>13.934394380689525</v>
+        <f t="shared" si="0"/>
+        <v>58.301511684684215</v>
       </c>
       <c r="H5" s="3">
         <v>31.136500000000002</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9219999999995849E-2</v>
       </c>
       <c r="J5" s="3">
         <v>201.13140000000001</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106.0472</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -726,25 +740,25 @@
         <v>0.49121599999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>4.623389594426853</v>
+        <f t="shared" si="0"/>
+        <v>19.344263919777632</v>
       </c>
       <c r="H6" s="3">
         <v>40.492199999999997</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.2764799999999994</v>
       </c>
       <c r="J6" s="3">
         <v>181.8956</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.28300000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -764,75 +778,75 @@
         <v>0.48965199999999998</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>3.1744513337181104</v>
+        <f t="shared" si="0"/>
+        <v>13.281905655096693</v>
       </c>
       <c r="H7" s="3">
         <v>39.192999999999998</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.9772800000000004</v>
       </c>
       <c r="J7" s="3">
         <v>198.70529999999999</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.47330000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <f>AVERAGE(H10:H14)</f>
         <v>31.215719999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H10" s="3">
         <v>31.215499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H11" s="3">
         <v>31.2163</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" s="3">
         <v>31.215199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="3">
         <v>31.215699999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
       <c r="H14" s="3">
         <v>31.215900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="J15">
         <v>307.17860000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
